--- a/import/typo_config.xlsx
+++ b/import/typo_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="30960" yWindow="-7720" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -541,91 +541,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -969,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B93">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1803,7 +1719,7 @@
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="14">
         <f t="shared" ref="A2:A5" ca="1" si="0">RANDBETWEEN(100000,999999)</f>
-        <v>406917</v>
+        <v>463945</v>
       </c>
       <c r="B2" s="14">
         <v>10</v>
@@ -1819,13 +1735,13 @@
       </c>
       <c r="F2" s="17">
         <f t="shared" ref="F2:F4" ca="1" si="1">NOW()</f>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>361995</v>
+        <v>927253</v>
       </c>
       <c r="B3" s="14">
         <v>40</v>
@@ -1841,13 +1757,13 @@
       </c>
       <c r="F3" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>781381</v>
+        <v>133368</v>
       </c>
       <c r="B4" s="14">
         <v>50</v>
@@ -1863,13 +1779,13 @@
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>998005</v>
+        <v>258589</v>
       </c>
       <c r="B5" s="14">
         <v>30</v>
@@ -1954,7 +1870,7 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>840165</v>
+        <v>982430</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>118</v>
@@ -2076,7 +1992,7 @@
       </c>
       <c r="B2" s="17">
         <f t="shared" ref="B2:B5" ca="1" si="0">NOW()</f>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -2090,7 +2006,7 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -2099,7 +2015,7 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -2108,7 +2024,7 @@
       </c>
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42534.634882407408</v>
+        <v>42534.704816319441</v>
       </c>
     </row>
   </sheetData>
